--- a/Lab3/Normalize to 3NF.xlsx
+++ b/Lab3/Normalize to 3NF.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labfiles\Lab03\Starter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\index\Documents\GitHub\ITMO.10985-Introduction_to_SQL_Databases\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFE6BF4-1BE1-49B0-964F-C050224D5251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="818" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>OrderID</t>
   </si>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
@@ -180,7 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,7 +458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -599,11 +600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,10 +641,7 @@
       <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -658,9 +656,6 @@
       <c r="D4" s="5">
         <v>25895</v>
       </c>
-      <c r="E4">
-        <v>46</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -675,9 +670,6 @@
       <c r="D5" s="5">
         <v>30148</v>
       </c>
-      <c r="E5">
-        <v>34</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -691,9 +683,6 @@
       </c>
       <c r="D6" s="5">
         <v>34423</v>
-      </c>
-      <c r="E6">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +692,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
